--- a/Codes/Tesis/LocalSearch/CoordenadasAccidentes.xlsx
+++ b/Codes/Tesis/LocalSearch/CoordenadasAccidentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\Codes\Tesis\LocalSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDD5E29-9130-4D38-8848-66D7664DB798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2400AD3-046E-4E00-9140-70E6C152F505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo1 (00-08) Mensual" sheetId="1" r:id="rId1"/>
@@ -18795,7 +18795,7 @@
   <dimension ref="B2:I903"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H599" sqref="H599"/>
+      <selection activeCell="G398" sqref="G398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19024,7 +19024,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44581</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>2.2197558268590455E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44569</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44581</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44569</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44581</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>2.2197558268590455E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>44581</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>2.2197558268590455E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>44581</v>
       </c>
@@ -21022,7 +21022,7 @@
         <v>1.8867924528301886E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>44581</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>44569</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>4.4395116537180911E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>44569</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>44569</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>44581</v>
       </c>
@@ -23101,7 +23101,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="161" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>44581</v>
       </c>
@@ -23560,7 +23560,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="178" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>44581</v>
       </c>
@@ -23911,7 +23911,7 @@
         <v>1.2208657047724751E-2</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>44569</v>
       </c>
@@ -24370,7 +24370,7 @@
         <v>2.2197558268590455E-3</v>
       </c>
     </row>
-    <row r="208" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>44581</v>
       </c>
@@ -25007,7 +25007,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>44569</v>
       </c>
@@ -25049,7 +25049,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>44581</v>
       </c>
@@ -25273,7 +25273,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="253" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>44581</v>
       </c>
@@ -25287,7 +25287,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="254" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>44581</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="277" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>44581</v>
       </c>
@@ -25763,7 +25763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>44581</v>
       </c>
@@ -26127,7 +26127,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>44569</v>
       </c>
@@ -26295,7 +26295,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>44569</v>
       </c>
@@ -26421,7 +26421,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="335" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>44581</v>
       </c>
@@ -26813,7 +26813,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>44569</v>
       </c>
@@ -26827,7 +26827,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>44569</v>
       </c>
@@ -27275,7 +27275,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="396" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>44581</v>
       </c>
@@ -27289,7 +27289,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="397" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>44581</v>
       </c>
@@ -27303,7 +27303,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="398" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>44581</v>
       </c>
@@ -27639,7 +27639,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="422" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B422" s="1">
         <v>44581</v>
       </c>
@@ -27933,7 +27933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B443" s="1">
         <v>44569</v>
       </c>
@@ -27989,7 +27989,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="447" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B447" s="1">
         <v>44581</v>
       </c>
@@ -28059,7 +28059,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="452" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
         <v>44581</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="461" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B461" s="1">
         <v>44569</v>
       </c>
@@ -28815,7 +28815,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="506" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B506" s="1">
         <v>44581</v>
       </c>
@@ -29403,7 +29403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B548" s="1">
         <v>44569</v>
       </c>
@@ -29963,7 +29963,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="588" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B588" s="1">
         <v>44569</v>
       </c>
@@ -30117,7 +30117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="599" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B599" s="1">
         <v>44569</v>
       </c>
@@ -30565,7 +30565,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="631" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B631" s="1">
         <v>44581</v>
       </c>
@@ -30775,7 +30775,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="646" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B646" s="1">
         <v>44569</v>
       </c>
@@ -30803,7 +30803,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="648" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B648" s="1">
         <v>44581</v>
       </c>
@@ -31713,7 +31713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="713" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B713" s="1">
         <v>44569</v>
       </c>
@@ -31867,7 +31867,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="724" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B724" s="1">
         <v>44581</v>
       </c>
@@ -32007,7 +32007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="734" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B734" s="1">
         <v>44581</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="735" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B735" s="1">
         <v>44581</v>
       </c>
@@ -32273,7 +32273,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="753" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B753" s="1">
         <v>44581</v>
       </c>
@@ -32651,7 +32651,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="780" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B780" s="1">
         <v>44581</v>
       </c>
@@ -33057,7 +33057,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="809" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B809" s="1">
         <v>44581</v>
       </c>
@@ -33225,7 +33225,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="821" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B821" s="1">
         <v>44569</v>
       </c>
@@ -33239,7 +33239,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="822" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B822" s="1">
         <v>44569</v>
       </c>
@@ -33393,7 +33393,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="833" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B833" s="1">
         <v>44581</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B834" s="1">
         <v>44581</v>
       </c>
@@ -33421,7 +33421,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="835" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B835" s="1">
         <v>44581</v>
       </c>
@@ -33575,7 +33575,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="846" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B846" s="1">
         <v>44581</v>
       </c>
@@ -33603,7 +33603,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="848" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B848" s="1">
         <v>44569</v>
       </c>
@@ -33645,7 +33645,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="851" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B851" s="1">
         <v>44569</v>
       </c>
@@ -33855,7 +33855,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="866" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B866" s="1">
         <v>44569</v>
       </c>
@@ -33869,7 +33869,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="867" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B867" s="1">
         <v>44569</v>
       </c>
@@ -34023,7 +34023,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="878" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B878" s="1">
         <v>44581</v>
       </c>
@@ -34331,7 +34331,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="900" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B900" s="1">
         <v>44569</v>
       </c>
@@ -34391,7 +34391,7 @@
   <autoFilter ref="B2:E903" xr:uid="{5AA21DF2-85A5-4128-937E-C8E5EE619425}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2022" month="1" day="8" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="1" day="20" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E903">
@@ -34410,10 +34410,10 @@
   <dimension ref="B2:AG228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J220" sqref="J220"/>
+      <selection pane="bottomRight" activeCell="U222" sqref="U222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34650,7 +34650,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -34659,7 +34659,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -35039,7 +35039,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -35455,7 +35455,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -35621,7 +35621,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -35633,10 +35633,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -35648,13 +35648,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -35835,7 +35835,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -35915,7 +35915,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -36016,7 +36016,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -36028,7 +36028,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -36325,7 +36325,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -36714,7 +36714,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -36812,7 +36812,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -36904,13 +36904,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -37293,7 +37293,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -37599,7 +37599,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -37875,16 +37875,16 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -37902,7 +37902,7 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -37979,10 +37979,10 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -37991,19 +37991,19 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -38291,7 +38291,7 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -38383,7 +38383,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -38858,7 +38858,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -38873,7 +38873,7 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -39167,7 +39167,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -39253,7 +39253,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -39559,7 +39559,7 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -39645,7 +39645,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -39654,7 +39654,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -39669,7 +39669,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -39743,7 +39743,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -39844,7 +39844,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -39951,7 +39951,7 @@
         <v>0</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -40064,7 +40064,7 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -40156,13 +40156,13 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -40227,40 +40227,40 @@
         <v>3</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -40423,7 +40423,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -40453,10 +40453,10 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -40732,7 +40732,7 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -40750,7 +40750,7 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -40848,7 +40848,7 @@
         <v>0</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -40946,7 +40946,7 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -41014,7 +41014,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -41115,13 +41115,13 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -41525,7 +41525,7 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -41703,10 +41703,10 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -41926,7 +41926,7 @@
         <v>0</v>
       </c>
       <c r="U78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -42291,7 +42291,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -42401,7 +42401,7 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -42413,7 +42413,7 @@
         <v>0</v>
       </c>
       <c r="T83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U83">
         <v>0</v>
@@ -42683,7 +42683,7 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -42692,7 +42692,7 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -42704,13 +42704,13 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>0</v>
       </c>
       <c r="U86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -42873,7 +42873,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -43182,7 +43182,7 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -43265,7 +43265,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -43274,7 +43274,7 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -43283,7 +43283,7 @@
         <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -43292,13 +43292,13 @@
         <v>0</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T92">
         <v>0</v>
       </c>
       <c r="U92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -43461,25 +43461,25 @@
         <v>3</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -43488,13 +43488,13 @@
         <v>0</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T94">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V94">
         <v>0</v>
@@ -43574,7 +43574,7 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -43782,7 +43782,7 @@
         <v>0</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -44159,7 +44159,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -44254,7 +44254,7 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -44263,7 +44263,7 @@
         <v>0</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -44361,7 +44361,7 @@
         <v>0</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -44456,7 +44456,7 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -44637,7 +44637,7 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -44851,7 +44851,7 @@
         <v>0</v>
       </c>
       <c r="P108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -45041,7 +45041,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110">
         <v>0</v>
@@ -45133,7 +45133,7 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -45356,7 +45356,7 @@
         <v>0</v>
       </c>
       <c r="U113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -45451,10 +45451,10 @@
         <v>0</v>
       </c>
       <c r="T114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V114">
         <v>0</v>
@@ -45552,7 +45552,7 @@
         <v>0</v>
       </c>
       <c r="U115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V115">
         <v>0</v>
@@ -45617,7 +45617,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -45843,7 +45843,7 @@
         <v>0</v>
       </c>
       <c r="T118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U118">
         <v>0</v>
@@ -46309,13 +46309,13 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -46508,13 +46508,13 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -46523,16 +46523,16 @@
         <v>0</v>
       </c>
       <c r="R125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V125">
         <v>0</v>
@@ -46612,7 +46612,7 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -46695,22 +46695,22 @@
         <v>1</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N127">
         <v>0</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -46719,16 +46719,16 @@
         <v>0</v>
       </c>
       <c r="R127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V127">
         <v>0</v>
@@ -46921,7 +46921,7 @@
         <v>0</v>
       </c>
       <c r="T129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U129">
         <v>0</v>
@@ -47004,7 +47004,7 @@
         <v>0</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -47093,19 +47093,19 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O131">
         <v>0</v>
       </c>
       <c r="P131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -47120,7 +47120,7 @@
         <v>0</v>
       </c>
       <c r="U131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V131">
         <v>0</v>
@@ -47215,7 +47215,7 @@
         <v>0</v>
       </c>
       <c r="T132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U132">
         <v>0</v>
@@ -47283,7 +47283,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -47310,7 +47310,7 @@
         <v>0</v>
       </c>
       <c r="S133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -47494,7 +47494,7 @@
         <v>0</v>
       </c>
       <c r="O135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -47577,25 +47577,25 @@
         <v>2</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N136">
         <v>0</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -47604,13 +47604,13 @@
         <v>0</v>
       </c>
       <c r="S136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V136">
         <v>0</v>
@@ -47699,7 +47699,7 @@
         <v>0</v>
       </c>
       <c r="R137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S137">
         <v>0</v>
@@ -47886,7 +47886,7 @@
         <v>0</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -48183,7 +48183,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -48379,7 +48379,7 @@
         <v>0</v>
       </c>
       <c r="P144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -48388,7 +48388,7 @@
         <v>0</v>
       </c>
       <c r="S144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T144">
         <v>0</v>
@@ -48483,7 +48483,7 @@
         <v>0</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -48762,7 +48762,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -48881,7 +48881,7 @@
         <v>0</v>
       </c>
       <c r="T149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U149">
         <v>0</v>
@@ -48967,7 +48967,7 @@
         <v>0</v>
       </c>
       <c r="P150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -49047,7 +49047,7 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -49668,7 +49668,7 @@
         <v>0</v>
       </c>
       <c r="U157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V157">
         <v>0</v>
@@ -49837,31 +49837,31 @@
         <v>0</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M159">
         <v>0</v>
       </c>
       <c r="N159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S159">
         <v>0</v>
       </c>
       <c r="T159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U159">
         <v>0</v>
@@ -49956,7 +49956,7 @@
         <v>0</v>
       </c>
       <c r="S160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T160">
         <v>0</v>
@@ -50057,7 +50057,7 @@
         <v>0</v>
       </c>
       <c r="T161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U161">
         <v>0</v>
@@ -50256,7 +50256,7 @@
         <v>0</v>
       </c>
       <c r="U163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V163">
         <v>0</v>
@@ -50434,7 +50434,7 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -50737,7 +50737,7 @@
         <v>0</v>
       </c>
       <c r="R168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S168">
         <v>0</v>
@@ -50921,7 +50921,7 @@
         <v>0</v>
       </c>
       <c r="N170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170">
         <v>0</v>
@@ -51117,7 +51117,7 @@
         <v>0</v>
       </c>
       <c r="N172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -51316,7 +51316,7 @@
         <v>0</v>
       </c>
       <c r="O174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -51399,7 +51399,7 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -51705,7 +51705,7 @@
         <v>0</v>
       </c>
       <c r="N178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -51895,7 +51895,7 @@
         <v>0</v>
       </c>
       <c r="L180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M180">
         <v>0</v>
@@ -51907,13 +51907,13 @@
         <v>0</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q180">
         <v>0</v>
       </c>
       <c r="R180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S180">
         <v>0</v>
@@ -51999,13 +51999,13 @@
         <v>0</v>
       </c>
       <c r="N181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q181">
         <v>0</v>
@@ -52385,7 +52385,7 @@
         <v>0</v>
       </c>
       <c r="L185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -52495,7 +52495,7 @@
         <v>0</v>
       </c>
       <c r="P186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -52602,7 +52602,7 @@
         <v>0</v>
       </c>
       <c r="S187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T187">
         <v>0</v>
@@ -52679,7 +52679,7 @@
         <v>0</v>
       </c>
       <c r="L188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -52872,7 +52872,7 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190">
         <v>0</v>
@@ -52887,7 +52887,7 @@
         <v>0</v>
       </c>
       <c r="P190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -52899,7 +52899,7 @@
         <v>0</v>
       </c>
       <c r="T190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U190">
         <v>0</v>
@@ -52979,7 +52979,7 @@
         <v>0</v>
       </c>
       <c r="N191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O191">
         <v>0</v>
@@ -53196,7 +53196,7 @@
         <v>0</v>
       </c>
       <c r="U193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V193">
         <v>0</v>
@@ -53285,7 +53285,7 @@
         <v>0</v>
       </c>
       <c r="R194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S194">
         <v>0</v>
@@ -53368,16 +53368,16 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -53386,10 +53386,10 @@
         <v>0</v>
       </c>
       <c r="S195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U195">
         <v>0</v>
@@ -53882,7 +53882,7 @@
         <v>0</v>
       </c>
       <c r="U200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V200">
         <v>0</v>
@@ -54057,7 +54057,7 @@
         <v>0</v>
       </c>
       <c r="N202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O202">
         <v>0</v>
@@ -54069,7 +54069,7 @@
         <v>0</v>
       </c>
       <c r="R202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S202">
         <v>0</v>
@@ -54161,7 +54161,7 @@
         <v>0</v>
       </c>
       <c r="P203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -54241,7 +54241,7 @@
         <v>1</v>
       </c>
       <c r="J204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K204">
         <v>0</v>
@@ -54250,16 +54250,16 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q204">
         <v>0</v>
@@ -54271,10 +54271,10 @@
         <v>0</v>
       </c>
       <c r="T204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V204">
         <v>0</v>
@@ -54342,7 +54342,7 @@
         <v>0</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -54535,7 +54535,7 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -54645,7 +54645,7 @@
         <v>0</v>
       </c>
       <c r="N208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -54829,7 +54829,7 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -54945,7 +54945,7 @@
         <v>0</v>
       </c>
       <c r="P211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q211">
         <v>0</v>
@@ -55058,7 +55058,7 @@
         <v>0</v>
       </c>
       <c r="U212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V212">
         <v>0</v>
@@ -55515,7 +55515,7 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -55729,7 +55729,7 @@
         <v>0</v>
       </c>
       <c r="P219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q219">
         <v>0</v>
@@ -55913,7 +55913,7 @@
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M221">
         <v>0</v>
@@ -55922,7 +55922,7 @@
         <v>0</v>
       </c>
       <c r="O221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -55934,13 +55934,13 @@
         <v>0</v>
       </c>
       <c r="S221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T221">
         <v>0</v>
       </c>
       <c r="U221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V221">
         <v>0</v>
@@ -56115,7 +56115,7 @@
         <v>0</v>
       </c>
       <c r="N223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O223">
         <v>0</v>
@@ -56308,16 +56308,16 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q225">
         <v>0</v>
@@ -56326,7 +56326,7 @@
         <v>0</v>
       </c>
       <c r="S225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T225">
         <v>0</v>
@@ -56412,7 +56412,7 @@
         <v>0</v>
       </c>
       <c r="O226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P226">
         <v>0</v>
@@ -56495,7 +56495,7 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -56674,8 +56674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFBEADB-34D0-48A6-B493-BE79E7E628C8}">
   <dimension ref="B2:I656"/>
   <sheetViews>
-    <sheetView topLeftCell="A633" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E656"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="D645" sqref="D645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Codes/Tesis/LocalSearch/CoordenadasAccidentes.xlsx
+++ b/Codes/Tesis/LocalSearch/CoordenadasAccidentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\Codes\Tesis\LocalSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2400AD3-046E-4E00-9140-70E6C152F505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02286552-7B7A-4CDC-8844-F8A3A531D36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo1 (00-08) Mensual" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5918" uniqueCount="1035">
   <si>
     <t>25.6727925, -100.352228</t>
   </si>
@@ -3131,6 +3131,27 @@
   </si>
   <si>
     <t>25.706956705527386, -100.34184894418</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
   </si>
 </sst>
 </file>
@@ -8616,13 +8637,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FE43B9-5C43-462D-BDBB-F89383BAFDFC}">
-  <dimension ref="B2:AG272"/>
+  <dimension ref="B1:AG272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8631,6 +8652,101 @@
     <col min="3" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>44562</v>
@@ -18794,8 +18910,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:I903"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G398" sqref="G398"/>
+    <sheetView topLeftCell="A684" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D532" sqref="D532:D535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18835,7 +18951,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="3" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>44592</v>
       </c>
@@ -19024,7 +19140,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44581</v>
       </c>
@@ -19672,7 +19788,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44581</v>
       </c>
@@ -20212,7 +20328,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44581</v>
       </c>
@@ -20590,7 +20706,7 @@
         <v>2.2197558268590455E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>44581</v>
       </c>
@@ -20671,7 +20787,7 @@
         <v>7.7691453940066596E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>44592</v>
       </c>
@@ -20725,7 +20841,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>44592</v>
       </c>
@@ -20779,7 +20895,7 @@
         <v>2.2197558268590455E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>44581</v>
       </c>
@@ -20887,7 +21003,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>44592</v>
       </c>
@@ -21022,7 +21138,7 @@
         <v>1.8867924528301886E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>44581</v>
       </c>
@@ -21076,7 +21192,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>44592</v>
       </c>
@@ -21967,7 +22083,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>44581</v>
       </c>
@@ -22588,7 +22704,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>44592</v>
       </c>
@@ -23047,7 +23163,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="159" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>44592</v>
       </c>
@@ -23101,7 +23217,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>44581</v>
       </c>
@@ -23209,7 +23325,7 @@
         <v>2.2197558268590455E-3</v>
       </c>
     </row>
-    <row r="165" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>44592</v>
       </c>
@@ -23560,7 +23676,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>44581</v>
       </c>
@@ -24370,7 +24486,7 @@
         <v>2.2197558268590455E-3</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>44581</v>
       </c>
@@ -24937,7 +25053,7 @@
         <v>1.1098779134295228E-3</v>
       </c>
     </row>
-    <row r="229" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>44592</v>
       </c>
@@ -24951,7 +25067,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="230" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>44592</v>
       </c>
@@ -25049,7 +25165,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>44581</v>
       </c>
@@ -25273,7 +25389,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>44581</v>
       </c>
@@ -25287,7 +25403,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>44581</v>
       </c>
@@ -25511,7 +25627,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="270" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>44592</v>
       </c>
@@ -25609,7 +25725,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>44581</v>
       </c>
@@ -25763,7 +25879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>44581</v>
       </c>
@@ -26421,7 +26537,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>44581</v>
       </c>
@@ -26547,7 +26663,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="344" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>44592</v>
       </c>
@@ -26561,7 +26677,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="345" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>44592</v>
       </c>
@@ -27275,7 +27391,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>44581</v>
       </c>
@@ -27289,7 +27405,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>44581</v>
       </c>
@@ -27303,7 +27419,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>44581</v>
       </c>
@@ -27569,7 +27685,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="417" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B417" s="1">
         <v>44592</v>
       </c>
@@ -27583,7 +27699,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="418" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B418" s="1">
         <v>44592</v>
       </c>
@@ -27597,7 +27713,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="419" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B419" s="1">
         <v>44592</v>
       </c>
@@ -27611,7 +27727,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="420" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B420" s="1">
         <v>44592</v>
       </c>
@@ -27639,7 +27755,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B422" s="1">
         <v>44581</v>
       </c>
@@ -27863,7 +27979,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="438" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B438" s="1">
         <v>44592</v>
       </c>
@@ -27989,7 +28105,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="1">
         <v>44581</v>
       </c>
@@ -28059,7 +28175,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="452" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
         <v>44581</v>
       </c>
@@ -28171,7 +28287,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="460" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B460" s="1">
         <v>44592</v>
       </c>
@@ -28241,7 +28357,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="465" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B465" s="1">
         <v>44592</v>
       </c>
@@ -28521,7 +28637,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="485" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B485" s="1">
         <v>44592</v>
       </c>
@@ -28815,7 +28931,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="506" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B506" s="1">
         <v>44581</v>
       </c>
@@ -29179,7 +29295,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="532" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B532" s="1">
         <v>44592</v>
       </c>
@@ -29193,7 +29309,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="533" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B533" s="1">
         <v>44592</v>
       </c>
@@ -29207,7 +29323,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="534" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B534" s="1">
         <v>44592</v>
       </c>
@@ -29221,7 +29337,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="535" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B535" s="1">
         <v>44592</v>
       </c>
@@ -29753,7 +29869,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="573" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B573" s="1">
         <v>44592</v>
       </c>
@@ -29767,7 +29883,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="574" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B574" s="1">
         <v>44592</v>
       </c>
@@ -29781,7 +29897,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="575" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B575" s="1">
         <v>44592</v>
       </c>
@@ -30537,7 +30653,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="629" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B629" s="1">
         <v>44592</v>
       </c>
@@ -30565,7 +30681,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="631" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B631" s="1">
         <v>44581</v>
       </c>
@@ -30621,7 +30737,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="635" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B635" s="1">
         <v>44592</v>
       </c>
@@ -30691,7 +30807,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="640" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B640" s="1">
         <v>44592</v>
       </c>
@@ -30803,7 +30919,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="648" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B648" s="1">
         <v>44581</v>
       </c>
@@ -31293,7 +31409,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="683" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B683" s="1">
         <v>44592</v>
       </c>
@@ -31307,7 +31423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="684" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B684" s="1">
         <v>44592</v>
       </c>
@@ -31475,7 +31591,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="696" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B696" s="1">
         <v>44592</v>
       </c>
@@ -31867,7 +31983,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="724" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B724" s="1">
         <v>44581</v>
       </c>
@@ -32007,7 +32123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="734" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B734" s="1">
         <v>44581</v>
       </c>
@@ -32021,7 +32137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="735" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B735" s="1">
         <v>44581</v>
       </c>
@@ -32105,7 +32221,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="741" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B741" s="1">
         <v>44592</v>
       </c>
@@ -32273,7 +32389,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="753" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B753" s="1">
         <v>44581</v>
       </c>
@@ -32651,7 +32767,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="780" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B780" s="1">
         <v>44581</v>
       </c>
@@ -32861,7 +32977,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="795" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B795" s="1">
         <v>44592</v>
       </c>
@@ -33057,7 +33173,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="809" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B809" s="1">
         <v>44581</v>
       </c>
@@ -33393,7 +33509,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="833" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B833" s="1">
         <v>44581</v>
       </c>
@@ -33407,7 +33523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B834" s="1">
         <v>44581</v>
       </c>
@@ -33421,7 +33537,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="835" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B835" s="1">
         <v>44581</v>
       </c>
@@ -33575,7 +33691,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="846" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B846" s="1">
         <v>44581</v>
       </c>
@@ -33771,7 +33887,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="860" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B860" s="1">
         <v>44592</v>
       </c>
@@ -34023,7 +34139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="878" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B878" s="1">
         <v>44581</v>
       </c>
@@ -34391,7 +34507,7 @@
   <autoFilter ref="B2:E903" xr:uid="{5AA21DF2-85A5-4128-937E-C8E5EE619425}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2022" month="1" day="20" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="1" day="31" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E903">
@@ -34407,13 +34523,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE271EAC-8B48-4AD6-B1A8-1B629F1A8593}">
-  <dimension ref="B2:AG228"/>
+  <dimension ref="B1:AG228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C205" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U222" sqref="U222"/>
+      <selection pane="bottomRight" activeCell="AG213" sqref="AG213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34422,6 +34538,101 @@
     <col min="3" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>44562</v>
@@ -34612,7 +34823,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
@@ -34695,7 +34906,7 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -34876,7 +35087,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -34971,7 +35182,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -35081,7 +35292,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -35283,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -35369,7 +35580,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -35565,7 +35776,7 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -35574,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -35657,19 +35868,19 @@
         <v>3</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -35678,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -36441,7 +36652,7 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -36649,7 +36860,7 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -36839,7 +37050,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -36848,7 +37059,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -36860,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -36931,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -36946,10 +37157,10 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -36964,7 +37175,7 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.25">
@@ -37044,7 +37255,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -37062,7 +37273,7 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.25">
@@ -37127,13 +37338,13 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -37148,7 +37359,7 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -37258,7 +37469,7 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
@@ -37341,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -37421,7 +37632,7 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -37445,7 +37656,7 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -37454,7 +37665,7 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
@@ -37531,7 +37742,7 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -37914,7 +38125,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -37923,13 +38134,13 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -37941,7 +38152,7 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -38009,7 +38220,7 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -38033,13 +38244,13 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38">
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38">
         <v>0</v>
@@ -38119,7 +38330,7 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -38211,7 +38422,7 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -38229,7 +38440,7 @@
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -38309,7 +38520,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -38330,7 +38541,7 @@
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -38618,7 +38829,7 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -38820,7 +39031,7 @@
         <v>0</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -38894,7 +39105,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -38912,7 +39123,7 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -39120,7 +39331,7 @@
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:33" x14ac:dyDescent="0.25">
@@ -39188,7 +39399,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -39399,13 +39610,13 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52">
         <v>0</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE52">
         <v>0</v>
@@ -39500,7 +39711,7 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53">
         <v>0</v>
@@ -39702,13 +39913,13 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:33" x14ac:dyDescent="0.25">
@@ -39773,7 +39984,7 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -39794,19 +40005,19 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF56">
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:33" x14ac:dyDescent="0.25">
@@ -40165,7 +40376,7 @@
         <v>2</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60">
         <v>0</v>
@@ -40177,13 +40388,13 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60">
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -40263,40 +40474,40 @@
         <v>3</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z61">
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:33" x14ac:dyDescent="0.25">
@@ -40459,10 +40670,10 @@
         <v>1</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63">
         <v>0</v>
@@ -40474,7 +40685,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -40483,7 +40694,7 @@
         <v>0</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63">
         <v>0</v>
@@ -40584,7 +40795,7 @@
         <v>0</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -40664,7 +40875,7 @@
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -41145,7 +41356,7 @@
         <v>0</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>0</v>
@@ -41166,10 +41377,10 @@
         <v>0</v>
       </c>
       <c r="AC70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE70">
         <v>0</v>
@@ -41246,7 +41457,7 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71">
         <v>0</v>
@@ -41273,7 +41484,7 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG71">
         <v>0</v>
@@ -41365,7 +41576,7 @@
         <v>0</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE72">
         <v>0</v>
@@ -41460,7 +41671,7 @@
         <v>0</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD73">
         <v>0</v>
@@ -41561,7 +41772,7 @@
         <v>0</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE74">
         <v>0</v>
@@ -41662,7 +41873,7 @@
         <v>0</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -41742,7 +41953,7 @@
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -41766,7 +41977,7 @@
         <v>0</v>
       </c>
       <c r="AG76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:33" x14ac:dyDescent="0.25">
@@ -42030,7 +42241,7 @@
         <v>0</v>
       </c>
       <c r="W79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X79">
         <v>0</v>
@@ -42045,7 +42256,7 @@
         <v>0</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -42149,7 +42360,7 @@
         <v>0</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE80">
         <v>0</v>
@@ -42223,7 +42434,7 @@
         <v>0</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -42419,13 +42630,13 @@
         <v>0</v>
       </c>
       <c r="V83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W83">
         <v>0</v>
       </c>
       <c r="X83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y83">
         <v>0</v>
@@ -42437,13 +42648,13 @@
         <v>0</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE83">
         <v>0</v>
@@ -42532,7 +42743,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB84">
         <v>0</v>
@@ -42639,7 +42850,7 @@
         <v>0</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE85">
         <v>0</v>
@@ -42719,28 +42930,28 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z86">
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB86">
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD86">
         <v>0</v>
       </c>
       <c r="AE86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -42835,7 +43046,7 @@
         <v>0</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE87">
         <v>0</v>
@@ -43016,7 +43227,7 @@
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -43301,10 +43512,10 @@
         <v>1</v>
       </c>
       <c r="V92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X92">
         <v>0</v>
@@ -43316,25 +43527,25 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE92">
         <v>0</v>
       </c>
       <c r="AF92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="2:33" x14ac:dyDescent="0.25">
@@ -43423,7 +43634,7 @@
         <v>0</v>
       </c>
       <c r="AD93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE93">
         <v>0</v>
@@ -43497,40 +43708,40 @@
         <v>2</v>
       </c>
       <c r="V94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF94">
         <v>0</v>
       </c>
       <c r="AG94">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="2:33" x14ac:dyDescent="0.25">
@@ -43693,7 +43904,7 @@
         <v>0</v>
       </c>
       <c r="V96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W96">
         <v>0</v>
@@ -43708,10 +43919,10 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -43916,7 +44127,7 @@
         <v>0</v>
       </c>
       <c r="AE98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -44017,7 +44228,7 @@
         <v>0</v>
       </c>
       <c r="AF99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG99">
         <v>0</v>
@@ -44195,10 +44406,10 @@
         <v>0</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB101">
         <v>0</v>
@@ -44299,7 +44510,7 @@
         <v>0</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -44314,7 +44525,7 @@
         <v>0</v>
       </c>
       <c r="AG102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="2:33" x14ac:dyDescent="0.25">
@@ -44394,7 +44605,7 @@
         <v>0</v>
       </c>
       <c r="AA103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB103">
         <v>0</v>
@@ -44795,7 +45006,7 @@
         <v>0</v>
       </c>
       <c r="AD107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE107">
         <v>0</v>
@@ -44893,7 +45104,7 @@
         <v>0</v>
       </c>
       <c r="AD108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE108">
         <v>0</v>
@@ -44967,7 +45178,7 @@
         <v>0</v>
       </c>
       <c r="V109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W109">
         <v>0</v>
@@ -45086,7 +45297,7 @@
         <v>0</v>
       </c>
       <c r="AC110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD110">
         <v>0</v>
@@ -45261,7 +45472,7 @@
         <v>0</v>
       </c>
       <c r="V112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W112">
         <v>0</v>
@@ -45472,7 +45683,7 @@
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB114">
         <v>0</v>
@@ -45567,7 +45778,7 @@
         <v>0</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA115">
         <v>0</v>
@@ -45588,7 +45799,7 @@
         <v>0</v>
       </c>
       <c r="AG115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="2:33" x14ac:dyDescent="0.25">
@@ -45965,7 +46176,7 @@
         <v>0</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -45980,7 +46191,7 @@
         <v>0</v>
       </c>
       <c r="AG119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="2:33" x14ac:dyDescent="0.25">
@@ -46069,7 +46280,7 @@
         <v>0</v>
       </c>
       <c r="AD120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE120">
         <v>0</v>
@@ -46259,7 +46470,7 @@
         <v>0</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -46342,7 +46553,7 @@
         <v>0</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X123">
         <v>0</v>
@@ -46351,10 +46562,10 @@
         <v>0</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB123">
         <v>0</v>
@@ -46363,7 +46574,7 @@
         <v>0</v>
       </c>
       <c r="AD123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE123">
         <v>0</v>
@@ -46372,7 +46583,7 @@
         <v>0</v>
       </c>
       <c r="AG123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="2:33" x14ac:dyDescent="0.25">
@@ -46449,13 +46660,13 @@
         <v>0</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>0</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -46464,7 +46675,7 @@
         <v>0</v>
       </c>
       <c r="AE124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF124">
         <v>0</v>
@@ -46535,40 +46746,40 @@
         <v>3</v>
       </c>
       <c r="V125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X125">
         <v>0</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z125">
         <v>0</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF125">
         <v>0</v>
       </c>
       <c r="AG125">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="2:33" x14ac:dyDescent="0.25">
@@ -46645,7 +46856,7 @@
         <v>0</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>0</v>
@@ -46734,37 +46945,37 @@
         <v>0</v>
       </c>
       <c r="W127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y127">
         <v>0</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD127">
         <v>0</v>
       </c>
       <c r="AE127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF127">
         <v>0</v>
       </c>
       <c r="AG127">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="2:33" x14ac:dyDescent="0.25">
@@ -47052,7 +47263,7 @@
         <v>0</v>
       </c>
       <c r="AE130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF130">
         <v>0</v>
@@ -47328,7 +47539,7 @@
         <v>0</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z133">
         <v>0</v>
@@ -47435,7 +47646,7 @@
         <v>0</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -47616,25 +47827,25 @@
         <v>0</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y136">
         <v>0</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA136">
         <v>0</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD136">
         <v>0</v>
@@ -47643,7 +47854,7 @@
         <v>0</v>
       </c>
       <c r="AF136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG136">
         <v>0</v>
@@ -47818,7 +48029,7 @@
         <v>0</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z138">
         <v>0</v>
@@ -48032,7 +48243,7 @@
         <v>0</v>
       </c>
       <c r="AE140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF140">
         <v>0</v>
@@ -48136,7 +48347,7 @@
         <v>0</v>
       </c>
       <c r="AG141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="2:33" x14ac:dyDescent="0.25">
@@ -48299,7 +48510,7 @@
         <v>0</v>
       </c>
       <c r="V143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -48424,13 +48635,13 @@
         <v>0</v>
       </c>
       <c r="AE144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF144">
         <v>0</v>
       </c>
       <c r="AG144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:33" x14ac:dyDescent="0.25">
@@ -48620,7 +48831,7 @@
         <v>0</v>
       </c>
       <c r="AE146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF146">
         <v>0</v>
@@ -48822,7 +49033,7 @@
         <v>0</v>
       </c>
       <c r="AG148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:33" x14ac:dyDescent="0.25">
@@ -48890,7 +49101,7 @@
         <v>0</v>
       </c>
       <c r="W149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X149">
         <v>0</v>
@@ -49086,7 +49297,7 @@
         <v>0</v>
       </c>
       <c r="W151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X151">
         <v>0</v>
@@ -49181,7 +49392,7 @@
         <v>0</v>
       </c>
       <c r="V152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -49383,7 +49594,7 @@
         <v>0</v>
       </c>
       <c r="X154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y154">
         <v>0</v>
@@ -49401,7 +49612,7 @@
         <v>0</v>
       </c>
       <c r="AD154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE154">
         <v>0</v>
@@ -49481,7 +49692,7 @@
         <v>0</v>
       </c>
       <c r="X155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y155">
         <v>0</v>
@@ -49576,7 +49787,7 @@
         <v>0</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X156">
         <v>0</v>
@@ -49591,7 +49802,7 @@
         <v>0</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC156">
         <v>0</v>
@@ -49600,7 +49811,7 @@
         <v>0</v>
       </c>
       <c r="AE156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF156">
         <v>0</v>
@@ -49870,25 +50081,25 @@
         <v>0</v>
       </c>
       <c r="W159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA159">
         <v>0</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD159">
         <v>0</v>
@@ -49900,7 +50111,7 @@
         <v>0</v>
       </c>
       <c r="AG159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="2:33" x14ac:dyDescent="0.25">
@@ -50485,10 +50696,10 @@
         <v>0</v>
       </c>
       <c r="AF165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="2:33" x14ac:dyDescent="0.25">
@@ -50574,7 +50785,7 @@
         <v>0</v>
       </c>
       <c r="AC166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD166">
         <v>0</v>
@@ -50657,7 +50868,7 @@
         <v>0</v>
       </c>
       <c r="X167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y167">
         <v>0</v>
@@ -50764,7 +50975,7 @@
         <v>0</v>
       </c>
       <c r="AA168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB168">
         <v>0</v>
@@ -51266,7 +51477,7 @@
         <v>0</v>
       </c>
       <c r="AE173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF173">
         <v>0</v>
@@ -51349,7 +51560,7 @@
         <v>0</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA174">
         <v>0</v>
@@ -51539,7 +51750,7 @@
         <v>0</v>
       </c>
       <c r="X176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y176">
         <v>0</v>
@@ -51560,7 +51771,7 @@
         <v>0</v>
       </c>
       <c r="AE176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF176">
         <v>0</v>
@@ -51738,7 +51949,7 @@
         <v>0</v>
       </c>
       <c r="Y178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z178">
         <v>0</v>
@@ -51925,7 +52136,7 @@
         <v>0</v>
       </c>
       <c r="V180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W180">
         <v>0</v>
@@ -52023,7 +52234,7 @@
         <v>0</v>
       </c>
       <c r="V181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>0</v>
@@ -52041,7 +52252,7 @@
         <v>0</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC181">
         <v>0</v>
@@ -52053,7 +52264,7 @@
         <v>0</v>
       </c>
       <c r="AF181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG181">
         <v>0</v>
@@ -52142,7 +52353,7 @@
         <v>0</v>
       </c>
       <c r="AC182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD182">
         <v>0</v>
@@ -52240,7 +52451,7 @@
         <v>0</v>
       </c>
       <c r="AC183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD183">
         <v>0</v>
@@ -52350,7 +52561,7 @@
         <v>0</v>
       </c>
       <c r="AG184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="2:33" x14ac:dyDescent="0.25">
@@ -52813,7 +53024,7 @@
         <v>0</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y189">
         <v>0</v>
@@ -52905,13 +53116,13 @@
         <v>0</v>
       </c>
       <c r="V190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W190">
         <v>0</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y190">
         <v>0</v>
@@ -52920,7 +53131,7 @@
         <v>0</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB190">
         <v>0</v>
@@ -52929,7 +53140,7 @@
         <v>0</v>
       </c>
       <c r="AD190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE190">
         <v>0</v>
@@ -53107,7 +53318,7 @@
         <v>0</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y192">
         <v>0</v>
@@ -53395,16 +53606,16 @@
         <v>0</v>
       </c>
       <c r="V195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z195">
         <v>0</v>
@@ -53416,19 +53627,19 @@
         <v>0</v>
       </c>
       <c r="AC195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF195">
         <v>0</v>
       </c>
       <c r="AG195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="2:33" x14ac:dyDescent="0.25">
@@ -53606,7 +53817,7 @@
         <v>0</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB197">
         <v>0</v>
@@ -53805,7 +54016,7 @@
         <v>0</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC199">
         <v>0</v>
@@ -53989,7 +54200,7 @@
         <v>0</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y201">
         <v>0</v>
@@ -54096,7 +54307,7 @@
         <v>0</v>
       </c>
       <c r="AA202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB202">
         <v>0</v>
@@ -54179,7 +54390,7 @@
         <v>0</v>
       </c>
       <c r="V203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -54191,19 +54402,19 @@
         <v>0</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA203">
         <v>0</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE203">
         <v>0</v>
@@ -54277,19 +54488,19 @@
         <v>1</v>
       </c>
       <c r="V204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W204">
         <v>0</v>
       </c>
       <c r="X204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y204">
         <v>0</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA204">
         <v>0</v>
@@ -54298,13 +54509,13 @@
         <v>0</v>
       </c>
       <c r="AC204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD204">
         <v>0</v>
       </c>
       <c r="AE204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF204">
         <v>0</v>
@@ -54393,7 +54604,7 @@
         <v>0</v>
       </c>
       <c r="AB205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC205">
         <v>0</v>
@@ -54473,7 +54684,7 @@
         <v>0</v>
       </c>
       <c r="V206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -54779,7 +54990,7 @@
         <v>0</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA209">
         <v>0</v>
@@ -54966,13 +55177,13 @@
         <v>0</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X211">
         <v>0</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z211">
         <v>0</v>
@@ -55094,7 +55305,7 @@
         <v>0</v>
       </c>
       <c r="AG212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="2:33" x14ac:dyDescent="0.25">
@@ -55385,7 +55596,7 @@
         <v>0</v>
       </c>
       <c r="AF215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG215">
         <v>0</v>
@@ -55462,7 +55673,7 @@
         <v>0</v>
       </c>
       <c r="Y216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z216">
         <v>0</v>
@@ -55563,7 +55774,7 @@
         <v>0</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA217">
         <v>0</v>
@@ -55943,7 +56154,7 @@
         <v>1</v>
       </c>
       <c r="V221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W221">
         <v>0</v>
@@ -55958,19 +56169,19 @@
         <v>0</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB221">
         <v>0</v>
       </c>
       <c r="AC221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD221">
         <v>0</v>
       </c>
       <c r="AE221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF221">
         <v>0</v>
@@ -56249,7 +56460,7 @@
         <v>0</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA224">
         <v>0</v>
@@ -56261,7 +56472,7 @@
         <v>0</v>
       </c>
       <c r="AD224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE224">
         <v>0</v>
@@ -56353,7 +56564,7 @@
         <v>0</v>
       </c>
       <c r="AB225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC225">
         <v>0</v>
@@ -56365,7 +56576,7 @@
         <v>0</v>
       </c>
       <c r="AF225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG225">
         <v>0</v>
@@ -56537,7 +56748,7 @@
         <v>0</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y227">
         <v>0</v>
@@ -56555,7 +56766,7 @@
         <v>0</v>
       </c>
       <c r="AD227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE227">
         <v>0</v>
@@ -56632,7 +56843,7 @@
         <v>0</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X228">
         <v>0</v>
@@ -68713,7 +68924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306DD0B8-17F4-4818-B672-9970267E1545}">
   <dimension ref="B2:C653"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B653"/>
     </sheetView>
   </sheetViews>

--- a/Codes/Tesis/LocalSearch/CoordenadasAccidentes.xlsx
+++ b/Codes/Tesis/LocalSearch/CoordenadasAccidentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\Codes\Tesis\LocalSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B6D01D-617C-4505-B267-5F4176B24859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F765F4-B2F2-4CA8-BF7C-E97E17C093B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
   </bookViews>
@@ -90499,9 +90499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306DD0B8-17F4-4818-B672-9970267E1545}">
   <dimension ref="B2:C653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
